--- a/PLDI-2012/raw_data/fuzz2/fuzzed/fanniemae_fuzzed_39.xlsx
+++ b/PLDI-2012/raw_data/fuzz2/fuzzed/fanniemae_fuzzed_39.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Selected Financial Information</t>
   </si>
@@ -1184,10 +1184,10 @@
         <v>1361974149.3</v>
       </c>
       <c r="F12" s="1">
-        <v>32568233.600000001</v>
+        <v>1305498328.7699957</v>
       </c>
       <c r="G12" s="1">
-        <v>1240524717.0500007</v>
+        <v>1240524717</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="1">
@@ -1220,10 +1220,10 @@
         <v>332114255.61000007</v>
       </c>
       <c r="F13" s="1">
-        <v>44875817.619999997</v>
+        <v>325268233.58999997</v>
       </c>
       <c r="G13" s="1">
-        <v>319819483.18000001</v>
+        <v>319819483.19999999</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="1">
@@ -1256,10 +1256,10 @@
         <v>537985.22000000253</v>
       </c>
       <c r="F14" s="1">
-        <v>350000000</v>
+        <v>44875817.619999997</v>
       </c>
       <c r="G14" s="1">
-        <v>34063116.800000042</v>
+        <v>34063116.799999997</v>
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="1">
@@ -1292,7 +1292,7 @@
         <v>30000000</v>
       </c>
       <c r="F15" s="1">
-        <v>-53616441.740000002</v>
+        <v>35000000</v>
       </c>
       <c r="G15" s="1">
         <v>40000000</v>
@@ -1328,10 +1328,10 @@
         <v>-60473972.810000002</v>
       </c>
       <c r="F16" s="1">
-        <v>1451068426</v>
+        <v>-53616441.74000001</v>
       </c>
       <c r="G16" s="1">
-        <v>-60834434.380000003</v>
+        <v>60834434.380000003</v>
       </c>
       <c r="H16" s="6"/>
       <c r="I16" s="1">
@@ -1403,11 +1403,12 @@
         <v>1447134855.7700002</v>
       </c>
       <c r="F18" s="1">
-        <v>-412000000</v>
+        <f>SUM(F12:F17)</f>
+        <v>1451068426.2899954</v>
       </c>
       <c r="G18" s="1">
         <f>SUM(G12:G17)</f>
-        <v>1370267325.9700005</v>
+        <v>1491936194.7</v>
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="1">
@@ -1442,10 +1443,10 @@
         <v>-384700000.00000012</v>
       </c>
       <c r="F19" s="1">
-        <v>1038368426</v>
+        <v>-412700000</v>
       </c>
       <c r="G19" s="1">
-        <v>-379300000.00000012</v>
+        <v>3793000000</v>
       </c>
       <c r="H19" s="6"/>
       <c r="I19" s="1">
@@ -1517,11 +1518,12 @@
         <v>1062434855.7700001</v>
       </c>
       <c r="F21" s="33">
-        <v>-20015625</v>
+        <f>SUM(F18:F20)</f>
+        <v>1038368426.2899954</v>
       </c>
       <c r="G21" s="33">
         <f>SUM(G18:G20)</f>
-        <v>990967325.97000039</v>
+        <v>5284936194.6999998</v>
       </c>
       <c r="H21" s="6"/>
       <c r="I21" s="33">
@@ -1556,10 +1558,10 @@
         <v>-20015625</v>
       </c>
       <c r="F22" s="32">
-        <v>1026703455</v>
+        <v>-20015625</v>
       </c>
       <c r="G22" s="32">
-        <v>-20015625</v>
+        <v>20015625</v>
       </c>
       <c r="H22" s="6"/>
       <c r="I22" s="32">
@@ -1596,11 +1598,11 @@
       </c>
       <c r="F23" s="33">
         <f>SUM(F21:F22)</f>
-        <v>1006687830</v>
+        <v>1018352801.2899954</v>
       </c>
       <c r="G23" s="33">
         <f>SUM(G21:G22)</f>
-        <v>970951700.97000039</v>
+        <v>5304951819.6999998</v>
       </c>
       <c r="H23" s="6"/>
       <c r="I23" s="33">
@@ -1642,13 +1644,13 @@
         <f>E23/E26</f>
         <v>1.0233708163259172</v>
       </c>
-      <c r="F25" s="5" t="e">
+      <c r="F25" s="5">
         <f>F23/F26</f>
-        <v>#VALUE!</v>
+        <v>0.9918665374628679</v>
       </c>
       <c r="G25" s="5">
         <f>G23/G26</f>
-        <v>0.94342760154224004</v>
+        <v>5.1545694467821459</v>
       </c>
       <c r="H25" s="5"/>
       <c r="I25" s="5">
@@ -1680,11 +1682,11 @@
       <c r="E26" s="1">
         <v>1018613403.9980445</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>13</v>
+      <c r="F26" s="1">
+        <v>1026703455.3810816</v>
       </c>
       <c r="G26" s="1">
-        <v>1029174575.116062</v>
+        <v>1029174575</v>
       </c>
       <c r="H26" s="6"/>
       <c r="I26" s="1">
@@ -1733,13 +1735,13 @@
         <f>(E25-D25)/D25</f>
         <v>-2.9235747514880096E-2</v>
       </c>
-      <c r="F28" s="16" t="e">
+      <c r="F28" s="16">
         <f>(F25-E25)/E25</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G28" s="16" t="e">
+        <v>-3.0784812660727658E-2</v>
+      </c>
+      <c r="G28" s="16">
         <f>(G25-F25)/F25</f>
-        <v>#VALUE!</v>
+        <v>4.1968377317851751</v>
       </c>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -1761,9 +1763,9 @@
       <c r="B29" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="5" t="e">
+      <c r="C29" s="5">
         <f>SUM(C25:G25)/5</f>
-        <v>#VALUE!</v>
+        <v>1.8622100587141717</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="12"/>
